--- a/data/indef2020.xlsx
+++ b/data/indef2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="二级综合" sheetId="1" state="visible" r:id="rId2"/>
@@ -56,6 +56,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -73,6 +74,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -116,6 +118,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
@@ -207,6 +210,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">吨标煤</t>
     </r>
@@ -224,6 +228,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万元</t>
     </r>
@@ -234,6 +239,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医疗收入中来自医保基金的比例</t>
     </r>
@@ -251,6 +257,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">包括门诊、 住院收入中来自医保基金的比例</t>
     </r>
@@ -270,6 +277,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医疗服务收入</t>
     </r>
@@ -287,6 +295,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不含药品、耗材、检查检验收 入</t>
     </r>
@@ -304,6 +313,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">占医疗收入比例▲</t>
     </r>
@@ -329,6 +339,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比值（</t>
     </r>
@@ -346,6 +357,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -377,6 +389,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人、天、元、</t>
     </r>
@@ -420,6 +433,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比值（</t>
     </r>
@@ -437,6 +451,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -447,6 +462,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下转患者人次数</t>
     </r>
@@ -464,6 +480,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">门急诊、住院</t>
     </r>
@@ -504,6 +521,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类切口手术部位感染率▲</t>
     </r>
@@ -517,6 +535,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人、天、元、百分比（</t>
     </r>
@@ -534,6 +553,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -619,6 +639,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医疗服务收入</t>
     </r>
@@ -636,6 +657,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不含药品、耗材、检查检验收入</t>
     </r>
@@ -653,6 +675,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">占 医疗收入比例▲</t>
     </r>
@@ -708,6 +731,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医院接受其他医院</t>
     </r>
@@ -725,6 +749,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">尤其是对口支援医院、医联体内 医院</t>
     </r>
@@ -742,6 +767,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">进修并返回原医院独立工作人数占比</t>
     </r>
@@ -761,6 +787,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -778,6 +805,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）、人、篇、比值（</t>
     </r>
@@ -795,6 +823,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -826,6 +855,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">增</t>
     </r>
@@ -913,6 +943,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">抗菌药物使用强度（</t>
     </r>
@@ -930,6 +961,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）▲</t>
     </r>
@@ -1135,6 +1167,7 @@
         <sz val="10"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">增</t>
     </r>
@@ -1189,6 +1222,7 @@
       <sz val="10"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1203,30 +1237,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1270,7 +1286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1279,15 +1295,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1295,27 +1311,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,27 +1327,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1351,31 +1335,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1388,66 +1360,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1458,8 +1370,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,29 +1379,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -1503,19 +1416,19 @@
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1529,19 +1442,19 @@
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1555,25 +1468,25 @@
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1581,25 +1494,25 @@
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1607,25 +1520,25 @@
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1633,25 +1546,25 @@
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1659,25 +1572,25 @@
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1685,25 +1598,25 @@
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1711,25 +1624,25 @@
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1737,25 +1650,25 @@
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1763,25 +1676,25 @@
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1789,25 +1702,25 @@
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1815,25 +1728,25 @@
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1841,25 +1754,25 @@
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1867,25 +1780,25 @@
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1893,25 +1806,25 @@
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1919,25 +1832,25 @@
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1945,25 +1858,25 @@
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1971,25 +1884,25 @@
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1997,25 +1910,25 @@
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2023,25 +1936,25 @@
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2049,25 +1962,25 @@
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2075,25 +1988,25 @@
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2101,25 +2014,25 @@
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2127,25 +2040,25 @@
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2153,25 +2066,25 @@
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2179,25 +2092,25 @@
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2205,25 +2118,25 @@
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2246,26 +2159,28 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="C50" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="3.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="87.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="9.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="9" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="7" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -2274,24 +2189,24 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2300,24 +2215,24 @@
       <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2326,24 +2241,24 @@
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2352,24 +2267,24 @@
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2378,24 +2293,24 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2404,24 +2319,24 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2430,24 +2345,24 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2456,24 +2371,24 @@
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2482,24 +2397,24 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2508,24 +2423,24 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2534,24 +2449,24 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2560,24 +2475,24 @@
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2586,24 +2501,24 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2612,24 +2527,24 @@
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2638,24 +2553,24 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2664,24 +2579,24 @@
       <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2690,50 +2605,50 @@
       <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2742,24 +2657,24 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2768,24 +2683,24 @@
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2794,24 +2709,24 @@
       <c r="D21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2820,24 +2735,24 @@
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2846,24 +2761,24 @@
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="14" t="s">
+      <c r="E23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2872,24 +2787,24 @@
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2898,24 +2813,24 @@
       <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2924,24 +2839,24 @@
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2950,24 +2865,24 @@
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2976,24 +2891,24 @@
       <c r="D28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3002,24 +2917,24 @@
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="11" t="s">
+      <c r="E29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3028,24 +2943,24 @@
       <c r="D30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3054,24 +2969,24 @@
       <c r="D31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3080,24 +2995,24 @@
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3106,24 +3021,24 @@
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3132,24 +3047,24 @@
       <c r="D34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3158,24 +3073,24 @@
       <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="11" t="s">
+      <c r="E35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3184,24 +3099,24 @@
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="E36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3210,24 +3125,24 @@
       <c r="D37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3236,24 +3151,24 @@
       <c r="D38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="11" t="s">
+      <c r="E38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3262,24 +3177,24 @@
       <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3288,24 +3203,24 @@
       <c r="D40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3314,24 +3229,24 @@
       <c r="D41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3340,24 +3255,24 @@
       <c r="D42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="E42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3366,24 +3281,24 @@
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3392,24 +3307,24 @@
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -3418,24 +3333,24 @@
       <c r="D45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="E45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -3444,24 +3359,24 @@
       <c r="D46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="14" t="s">
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -3470,24 +3385,24 @@
       <c r="D47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="E47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="5" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -3496,24 +3411,24 @@
       <c r="D48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="14" t="s">
+      <c r="E48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -3522,24 +3437,24 @@
       <c r="D49" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="15" t="s">
+      <c r="E49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="5" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3548,24 +3463,24 @@
       <c r="D50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="15" t="s">
+      <c r="E50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -3574,24 +3489,24 @@
       <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="14" t="s">
+      <c r="E51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3600,24 +3515,24 @@
       <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="14" t="s">
+      <c r="E52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -3626,24 +3541,24 @@
       <c r="D53" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3652,24 +3567,24 @@
       <c r="D54" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="14" t="s">
+      <c r="E54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -3678,24 +3593,24 @@
       <c r="D55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="14" t="s">
+      <c r="E55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="5" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3704,40 +3619,40 @@
       <c r="D56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="18" t="s">
+      <c r="E56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H56" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="11" t="s">
+      <c r="E57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3757,1782 +3672,1785 @@
   </sheetPr>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="3.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="31.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="34.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="10.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="D3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="19" t="s">
+      <c r="D15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="D19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="22" t="s">
+      <c r="D20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="22" t="s">
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="22" t="s">
+      <c r="D23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="22" t="s">
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="22" t="s">
+      <c r="D25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="21" t="s">
+      <c r="D26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="D29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="D31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="19" t="s">
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="22" t="s">
+      <c r="E34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="19" t="s">
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="22" t="s">
+      <c r="E36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="22" t="s">
+      <c r="E37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="22" t="s">
+      <c r="E38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="22" t="s">
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="22" t="s">
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="22" t="s">
+      <c r="E41" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="19" t="s">
+      <c r="E43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="19" t="s">
+      <c r="E45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="19" t="s">
+      <c r="E46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="19" t="s">
+      <c r="E47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="E48" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="19" t="s">
+      <c r="E49" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="D52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="21" t="s">
+      <c r="E53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="21" t="s">
+      <c r="E54" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="E55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="21" t="s">
+      <c r="D56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="21" t="s">
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E58" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="22" t="s">
+      <c r="E58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="22" t="s">
+      <c r="D59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="21" t="s">
+      <c r="D60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="22" t="s">
+      <c r="D61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="22" t="s">
+      <c r="D62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="22" t="s">
+      <c r="D63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="20" t="s">
+      <c r="E65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="20" t="s">
+      <c r="E66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="20" t="s">
+      <c r="E67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
+    <row r="68" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="19" t="s">
+      <c r="C68" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
